--- a/seeds/schemas/public.xlsx
+++ b/seeds/schemas/public.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="237">
   <si>
     <t xml:space="preserve">translation_key</t>
   </si>
@@ -496,10 +496,241 @@
     <t xml:space="preserve">copyrights</t>
   </si>
   <si>
-    <t xml:space="preserve">©  DarwishDev. All rights reserved.</t>
-  </si>
-  <si>
     <t xml:space="preserve">© 2025 درويش ديف. جميع الحقوق محفوظة.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">© DarwishDev. All rights reserved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_role_role_id_fkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا يمكن حذف الدور لأنه مرتبط بمستخدمين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot delete role because it is assigned to users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قائمة الأدوار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_role_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرض جميع الأدوار المُعرفة في النظام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View all roles defined in the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hard_delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حذف نهائي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إلغاء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حذف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استعادة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show_deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرض المحذوفات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show Deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إنشاء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تأكيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirm_delete_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تأكيد الحذف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm Deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirm_delete_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هل أنت متأكد أنك تريد حذف هذا العنصر؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you sure you want to delete this item?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قائمة المستخدمين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_user_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرض جميع المستخدمين المسجلين في النظام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View all registered users in the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_empty_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا يوجد مستخدمون مضافون بعد. المستخدمون هم الأفراد الذين يمكنهم تسجيل الدخول إلى النظام وتنفيذ الإجراءات.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No users have been added yet. Users represent individuals who can log into the system and perform actions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_deleted_empty_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا يوجد مستخدمون محذوفون. المستخدمون المحذوفون هم من تم تسجيلهم سابقاً ولكن تم حذفهم لاحقاً.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No deleted users. Deleted users are those who were previously registered but have been removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role_empty_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا يوجد أدوار مضافة بعد. الأدوار تحدد مجموعات من الصلاحيات التي تُمنح للمستخدمين.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No roles have been added yet. Roles define sets of permissions assigned to users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role_deleted_empty_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا يوجد أدوار محذوفة. الأدوار المحذوفة هي مجموعات صلاحيات كانت معرفة سابقاً ولم تعد فعالة.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No deleted roles. Deleted roles are previously defined permission sets that are no longer active.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footer.copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">© جميع الحقوق محفوظة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">© All rights reserved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرض</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحديث</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الدور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحديد صلاحيات الوصول من خلال الأدوار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define access permissions via roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصلاحيات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المستخدمون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المستأجر</t>
   </si>
 </sst>
 </file>
@@ -509,7 +740,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -531,18 +762,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="DejaVu Serif"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -587,7 +806,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -596,11 +815,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -793,48 +1008,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1015625" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="38.84765625" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="78.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="84.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="14.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="8.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="12.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="12.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="6.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="1" style="1" width="38.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -842,7 +1034,7 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -853,7 +1045,7 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -864,7 +1056,7 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -875,7 +1067,7 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -886,7 +1078,7 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -897,18 +1089,18 @@
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -919,7 +1111,7 @@
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -930,7 +1122,7 @@
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -941,7 +1133,7 @@
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -952,7 +1144,7 @@
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -963,7 +1155,7 @@
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -974,7 +1166,7 @@
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -985,7 +1177,7 @@
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -996,7 +1188,7 @@
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1004,625 +1196,838 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="22" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+    <row r="38" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+    <row r="42" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+    <row r="47" customFormat="false" ht="21.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
+    <row r="61" customFormat="false" ht="21.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="21.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0"/>
+      <c r="B90" s="0"/>
+      <c r="C90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0"/>
+      <c r="B91" s="0"/>
+      <c r="C91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0"/>
+      <c r="B92" s="0"/>
+      <c r="C92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0"/>
+      <c r="B93" s="0"/>
+      <c r="C93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0"/>
+      <c r="B94" s="0"/>
+      <c r="C94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0"/>
+      <c r="B95" s="0"/>
+      <c r="C95" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
